--- a/yield_prediction/results/graph_descriptors/WLsigmoidlogistic_3/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidlogistic_3/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.144</v>
+        <v>0.542</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.983</v>
+        <v>16.797</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.321</v>
+        <v>0.639</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.374</v>
+        <v>17.06</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.298</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.544</v>
+        <v>9.52</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>16.35984188715378</v>
+        <v>2.937169937819199</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>27.06217599522338</v>
+        <v>7.93826130691432</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>29.79420001209445</v>
+        <v>13.78834034936987</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>13.6387803556784</v>
+        <v>-7.75811003382173</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>24.73245846167957</v>
+        <v>8.445419946633201</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>27.65599299682317</v>
+        <v>12.52480581346214</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>17.99304824604181</v>
+        <v>-4.31455451534611</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>28.25979919623433</v>
+        <v>23.03886809162257</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>30.96353995391094</v>
+        <v>26.94893244351776</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>31.41771751077827</v>
+        <v>16.67908031294562</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>35.43702549660735</v>
+        <v>21.74528694794754</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>36.59803018015306</v>
+        <v>26.02877389071114</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>24.86111775368628</v>
+        <v>1.145927148884319</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>34.65862540478876</v>
+        <v>11.31998363229017</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>37.26206222971874</v>
+        <v>22.13518141022113</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>19.34322348322609</v>
+        <v>10.94203870599109</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>30.18963952290744</v>
+        <v>19.16406649961599</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>32.98164981051448</v>
+        <v>28.09127748809747</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>16.48185365664497</v>
+        <v>-1.154355534200782</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>27.73117406562096</v>
+        <v>13.43024323137721</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>30.7178660485804</v>
+        <v>21.36761290332809</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>20.90802610518439</v>
+        <v>-1.586354691147868</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>31.31865289433522</v>
+        <v>27.44769118460855</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>34.08055860701536</v>
+        <v>37.20185380040667</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>34.67375263569784</v>
+        <v>24.96297811652548</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>38.77607912452912</v>
+        <v>39.25812502811403</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>39.96160534121475</v>
+        <v>44.51389963280963</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>28.03951011491946</v>
+        <v>4.523280600673594</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>37.99303804435245</v>
+        <v>26.08559036929388</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>40.64317035061762</v>
+        <v>35.92165886141743</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>25.53331437412394</v>
+        <v>9.75285557121024</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>36.35467556653495</v>
+        <v>22.74579209471018</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>39.14582703225913</v>
+        <v>31.70741406010371</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>22.97552510143378</v>
+        <v>-3.46774897610964</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>34.19954370563424</v>
+        <v>16.77751272876677</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>37.18622178722596</v>
+        <v>23.54224191134782</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>27.36540312905657</v>
+        <v>-2.215254691714925</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>37.75363783037906</v>
+        <v>33.38417610956552</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>40.51386870939027</v>
+        <v>44.89781887335207</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>41.24320841159259</v>
+        <v>40.13331551092612</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>45.32022492011306</v>
+        <v>51.15816104591344</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>46.50903780354894</v>
+        <v>58.56045990069121</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>34.60319438390287</v>
+        <v>6.53389272548754</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>44.52866517208638</v>
+        <v>36.5550814936953</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>47.17629524298563</v>
+        <v>46.89080360757817</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>15.07137130987946</v>
+        <v>11.67443180208173</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>25.9187066314493</v>
+        <v>27.1313061253093</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>28.64988271928225</v>
+        <v>32.87455410801793</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>12.43662346956495</v>
+        <v>6.230125965219209</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>23.68235973125609</v>
+        <v>30.112164514185</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>26.60602675018864</v>
+        <v>35.34243283684294</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>16.78988992186379</v>
+        <v>11.27779293766759</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>27.19857240350078</v>
+        <v>50.43296278631687</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>29.90180725586287</v>
+        <v>53.95511276416205</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>30.27103001270974</v>
+        <v>41.61862364044831</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>34.33071599104046</v>
+        <v>46.74865222474543</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>35.49176516272703</v>
+        <v>50.37756124562063</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>23.60799044369681</v>
+        <v>10.51524531649844</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>33.5396450126163</v>
+        <v>36.3688320943962</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>36.14705669314993</v>
+        <v>44.03521033033255</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>17.95600735901477</v>
+        <v>8.978732016665511</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>28.94977991058013</v>
+        <v>27.23789637672886</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>31.73993788052385</v>
+        <v>35.42636674800261</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>15.18132420906951</v>
+        <v>0.3525112595629381</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>26.58516291570031</v>
+        <v>22.94011841330249</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>29.57085162604235</v>
+        <v>31.38547671209736</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>19.60646698887817</v>
+        <v>1.87059290135057</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>30.1612764391524</v>
+        <v>42.29295177489687</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>32.92161160259742</v>
+        <v>50.87741669935006</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>33.43684006637031</v>
+        <v>36.78832117750597</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>37.5795585052266</v>
+        <v>49.7952523031423</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>38.76426015473643</v>
+        <v>54.90263809972843</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>26.69711172220509</v>
+        <v>4.315316338107188</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>36.78638635080794</v>
+        <v>39.57783282632165</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>39.43979671346396</v>
+        <v>45.74093921630146</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>24.37373344090906</v>
+        <v>8.035497719674972</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>35.33976965913205</v>
+        <v>31.58723455174411</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>38.12946828847777</v>
+        <v>40.81618875687921</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>21.89871452275419</v>
+        <v>-2.336765800146701</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>33.27439759628184</v>
+        <v>26.55103182717517</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>36.26050053522374</v>
+        <v>34.72863330553901</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>26.29277185930951</v>
+        <v>1.166145737534215</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>36.82263880823896</v>
+        <v>48.66623930851626</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>39.58161973317716</v>
+        <v>60.14399261752767</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>40.23279549062907</v>
+        <v>52.18053308753074</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>44.34954950880851</v>
+        <v>62.10394879526257</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>45.53835730016374</v>
+        <v>69.91258472063259</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>33.48811651472841</v>
+        <v>5.492687235252141</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>43.54675869943229</v>
+        <v>49.90195563031745</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>46.19799703187893</v>
+        <v>57.10089307092125</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>14.84113024658349</v>
+        <v>14.01435903434214</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>25.68928940711629</v>
+        <v>25.34381161326016</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>28.41834442143999</v>
+        <v>30.52725716092366</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>12.1966764737778</v>
+        <v>6.679991588950152</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>23.44293534927942</v>
+        <v>26.76428402364562</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>26.36431232677449</v>
+        <v>31.14531715443648</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>16.55180494551673</v>
+        <v>10.93933765839854</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>26.96099204895608</v>
+        <v>45.94454635777738</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>29.66203914280321</v>
+        <v>48.8318424782396</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>30.04042935471956</v>
+        <v>39.16199599263349</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>34.1002260195093</v>
+        <v>44.64215585745215</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>35.26018109322438</v>
+        <v>45.60181828947638</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>23.37961735144001</v>
+        <v>13.24317782022019</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>33.3114347300324</v>
+        <v>32.81176858902578</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>35.91698320292995</v>
+        <v>40.11316653189633</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>17.74828811064095</v>
+        <v>16.83386093814898</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>28.74307300044236</v>
+        <v>31.42247270162779</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>31.53122191313085</v>
+        <v>39.15628057076464</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>14.96434962515797</v>
+        <v>6.008427364741472</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>26.36889520184688</v>
+        <v>25.37184915385669</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>29.35241424805053</v>
+        <v>33.05559858168019</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>19.39143037156386</v>
+        <v>7.057256873136119</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>29.94691954377147</v>
+        <v>43.8427036044769</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>32.70518031388615</v>
+        <v>51.91560548955463</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>33.22941339704486</v>
+        <v>40.05159512875793</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>37.37228956050379</v>
+        <v>53.30223438829871</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>38.5559437336663</v>
+        <v>55.61298649191117</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>26.49168320638221</v>
+        <v>11.93933658928385</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>36.5813108244958</v>
+        <v>41.12083634256727</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>39.23294398372405</v>
+        <v>47.20706750087442</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>24.1833581306096</v>
+        <v>15.43056852184993</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>35.15051603907614</v>
+        <v>35.3671423659086</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>37.93813875478232</v>
+        <v>44.14173068691566</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>21.6993095122573</v>
+        <v>2.729196220853915</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>33.07581997702498</v>
+        <v>28.49361744079531</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>36.0596937254042</v>
+        <v>35.97237263183727</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>26.09528323339125</v>
+        <v>5.898348493985232</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>36.62593960865002</v>
+        <v>49.80883897991479</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>39.38278550193748</v>
+        <v>60.76786212884262</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>40.04295970434389</v>
+        <v>54.94638997670595</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>44.15992505193858</v>
+        <v>65.16162749272411</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>45.34767041828906</v>
+        <v>70.20607594666234</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>33.30007820962713</v>
+        <v>12.8268693456017</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>43.35915498208102</v>
+        <v>51.29758847709378</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>46.00856547221116</v>
+        <v>58.4913361637407</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>14.40567208697729</v>
+        <v>8.367253167637166</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>25.08822666221442</v>
+        <v>10.79056697224051</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>27.82032247375567</v>
+        <v>16.35658625004024</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>11.63794080717972</v>
+        <v>-1.726101612878118</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>22.71074862274924</v>
+        <v>11.77996130316999</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>25.6346313181406</v>
+        <v>15.84188362892971</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>15.98120618439203</v>
+        <v>1.671061914936224</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>26.22858578619834</v>
+        <v>26.033046282482</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>28.93250947088168</v>
+        <v>29.77859671576076</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>29.37786132379886</v>
+        <v>18.84988908715804</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>33.39175264655321</v>
+        <v>23.40022953591532</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>34.55341131140175</v>
+        <v>29.38371410332716</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>22.84093702332018</v>
+        <v>11.3763570166201</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>32.62017326193565</v>
+        <v>18.32378951613197</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>35.22339110584618</v>
+        <v>27.98290722324476</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>17.40425534402168</v>
+        <v>11.83334578428242</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>28.23122122884932</v>
+        <v>17.46806321277956</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>31.02336051929848</v>
+        <v>26.0305277754336</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>14.49651865611781</v>
+        <v>0.08793635369847408</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>25.72529851074414</v>
+        <v>12.06624224287982</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>28.71240213135531</v>
+        <v>19.86249658535247</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>18.91166317768789</v>
+        <v>-0.4378185687723928</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>29.30323268739208</v>
+        <v>25.55989736570658</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>32.0653724381113</v>
+        <v>35.03220852596971</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>32.64938159391746</v>
+        <v>21.70514890190749</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>36.74640600246491</v>
+        <v>35.42359357818541</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>37.93256089470867</v>
+        <v>42.35478993151131</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>26.03446362512515</v>
+        <v>8.833156054220929</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>35.9699648930855</v>
+        <v>26.81422396531818</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>38.61994621643683</v>
+        <v>35.41827307997657</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>23.6968699527186</v>
+        <v>12.64176321249978</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>34.49945552178398</v>
+        <v>22.9662407596116</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>37.2906220785613</v>
+        <v>31.7404608218858</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>21.09240985554264</v>
+        <v>-0.3619589567725185</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>32.2965731886695</v>
+        <v>17.16392600068941</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>35.28352799809047</v>
+        <v>24.03248394169271</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>25.47273535954132</v>
+        <v>1.169861749573705</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>35.84256024608503</v>
+        <v>33.68590384653874</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>38.6028945266698</v>
+        <v>45.11318174873515</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>39.32268235909552</v>
+        <v>38.8784760253731</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>43.3946096357588</v>
+        <v>49.53030655992698</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>44.58403272599445</v>
+        <v>58.7183987670114</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>32.70108439908208</v>
+        <v>12.87912974995576</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>42.60913083094549</v>
+        <v>39.23353946926895</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>45.25652281031292</v>
+        <v>48.3602074596781</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>17.45786724239021</v>
+        <v>14.88378093523927</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>28.1612084440112</v>
+        <v>24.09218838350441</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>30.88882092914636</v>
+        <v>29.3225872660195</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>14.75566689579547</v>
+        <v>4.425027236055804</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>25.8506897945264</v>
+        <v>25.02162066380863</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>28.76989417806847</v>
+        <v>28.95325111538438</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>19.10201359236402</v>
+        <v>10.16478230413509</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>29.36994788483483</v>
+        <v>42.97867587416474</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>32.06951032518685</v>
+        <v>46.23505681081534</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>32.5081593331283</v>
+        <v>32.24184595788595</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>36.52714193389701</v>
+        <v>38.27474023074183</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>37.68656211199363</v>
+        <v>42.25966534467512</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>25.94565719990006</v>
+        <v>13.73260413766821</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>35.74180384896767</v>
+        <v>26.88858208100286</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>38.3410029917235</v>
+        <v>35.78390822987902</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>20.51974776753533</v>
+        <v>21.68306505505382</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>31.36686720477438</v>
+        <v>34.28775245771912</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>34.15378171210234</v>
+        <v>42.12487309082267</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>17.67858709178536</v>
+        <v>9.623747803500159</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>28.92889693091558</v>
+        <v>28.95141911831517</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>31.91052904140214</v>
+        <v>36.21970059157091</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>22.09713628122273</v>
+        <v>11.29694529205486</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>32.50863230413152</v>
+        <v>45.96279443472978</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>35.2656776888069</v>
+        <v>54.52186721719674</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>35.84404226770571</v>
+        <v>40.46690010504799</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>39.94592900784892</v>
+        <v>55.58251646796351</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>41.12952884168297</v>
+        <v>60.41233046282878</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>29.20396090969712</v>
+        <v>17.63163761071574</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>39.15574833515917</v>
+        <v>42.20437642282554</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>41.80106475811746</v>
+        <v>49.67404164847529</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>26.6645595088144</v>
+        <v>15.90849291304412</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>37.48599562986927</v>
+        <v>33.03812778928523</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>40.27259957590966</v>
+        <v>41.32340513229384</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>24.12475009015252</v>
+        <v>2.578915138562373</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>35.34908382019417</v>
+        <v>27.26738063205327</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>38.33128519568403</v>
+        <v>33.76103925049248</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>28.50742663584504</v>
+        <v>6.043161135710626</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>38.89591237510236</v>
+        <v>47.02602277608973</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>41.6518128854978</v>
+        <v>57.83135152883379</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>42.36546000015798</v>
+        <v>50.48004214445329</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>46.44206489165354</v>
+        <v>62.51668478233641</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>47.62919049402888</v>
+        <v>69.8924473010276</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>35.71986416161329</v>
+        <v>14.40788219730866</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>45.64320511360993</v>
+        <v>47.45257577621658</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>48.28653977736511</v>
+        <v>55.61689214659544</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>12.77625954263005</v>
+        <v>10.38894978545577</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>23.42607487919894</v>
+        <v>25.15682385314947</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>26.1066202231723</v>
+        <v>29.88579451376976</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>10.11035487952706</v>
+        <v>0.4845977739129026</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>21.14995141172981</v>
+        <v>25.32133621021584</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>24.01938933510399</v>
+        <v>29.16738384388189</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>14.39483961666189</v>
+        <v>8.206495684446203</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>24.61252728027335</v>
+        <v>47.55954756519623</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>27.26551651800869</v>
+        <v>49.99992237252804</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>27.62222727413219</v>
+        <v>31.70837534124491</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>31.61053869906001</v>
+        <v>37.60544393212721</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>32.74882092066255</v>
+        <v>40.17304953202981</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>21.09476385535982</v>
+        <v>5.969507553320547</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>30.83921887065338</v>
+        <v>26.53833189172114</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>33.39740759554189</v>
+        <v>31.89958355325414</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>15.83668496500813</v>
+        <v>19.30894508809426</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>26.63267705363573</v>
+        <v>38.56682589918373</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>29.37094719620234</v>
+        <v>45.31140414430937</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>13.03464437432743</v>
+        <v>6.133846731120236</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>24.23197597046291</v>
+        <v>31.54663687930833</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>27.1621038228804</v>
+        <v>38.00429179714246</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>17.39104989237082</v>
+        <v>10.47079762744756</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>27.75455959210434</v>
+        <v>52.89851475857134</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>30.46342108465555</v>
+        <v>59.92983005050232</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>30.96532658233097</v>
+        <v>42.82257930852109</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>35.03593967117415</v>
+        <v>57.22358767285991</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>36.19749555223297</v>
+        <v>60.78786179445812</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>24.36084113105637</v>
+        <v>14.87315369985223</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>34.26238830081149</v>
+        <v>47.52240715485292</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>36.86563908078909</v>
+        <v>51.08685694033162</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>22.25376403315081</v>
+        <v>13.66789244733639</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>33.0224915642691</v>
+        <v>37.67564491120337</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>35.76150515100285</v>
+        <v>45.39849257426935</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>19.74624669281029</v>
+        <v>-0.9184777183636967</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>30.91589717131416</v>
+        <v>30.10422677444607</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>33.84772905558287</v>
+        <v>36.20366713768588</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>24.07238240628604</v>
+        <v>5.232553509838148</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>34.41137813102148</v>
+        <v>54.13612376657694</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>37.12011098145621</v>
+        <v>63.98546897916015</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>37.75592752606082</v>
+        <v>52.68898737469346</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>41.80123590443647</v>
+        <v>64.27677988518474</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>42.96724890150004</v>
+        <v>70.46224759512654</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>31.14565132406927</v>
+        <v>11.00130776847787</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>41.01736370494952</v>
+        <v>52.52334232919899</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>43.61947951556971</v>
+        <v>56.88617786840965</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>10.86987536182988</v>
+        <v>-2.963595215316353</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>21.51137447082606</v>
+        <v>-0.2427258693751568</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>24.19822468112141</v>
+        <v>5.499698830749175</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>8.165742519404546</v>
+        <v>-11.65108397238</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>19.19597068993018</v>
+        <v>1.347585580938166</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>22.07154522524863</v>
+        <v>5.700012221294834</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>12.4614538978483</v>
+        <v>-7.471703644924979</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>22.67060131659992</v>
+        <v>16.83084509499805</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>25.32947733727535</v>
+        <v>20.35257078795593</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>25.70980600348435</v>
+        <v>10.8890937119964</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>29.69680705326466</v>
+        <v>15.92621915869521</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>30.83774985277081</v>
+        <v>18.33257817244178</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>19.19519769142601</v>
+        <v>-4.224596932386383</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>28.93524105679509</v>
+        <v>4.367486020665901</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>31.49923139714644</v>
+        <v>12.8370606742121</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>13.83234429368924</v>
+        <v>9.731918290655962</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>24.62060722633633</v>
+        <v>16.36344678874148</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>27.36641337975416</v>
+        <v>25.28671331731667</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>10.99066126471435</v>
+        <v>-1.976963434458632</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>22.1792804017405</v>
+        <v>10.76517043124381</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>25.11686460368399</v>
+        <v>18.98245597670729</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>15.35783991424038</v>
+        <v>-0.7039943550670884</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>25.71340012805485</v>
+        <v>26.11073959960837</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>28.4293799112329</v>
+        <v>35.53824667305546</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>28.95364742239778</v>
+        <v>22.8439916156707</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>33.02317600368523</v>
+        <v>36.19538811578011</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>34.18800187545214</v>
+        <v>40.0776098280376</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>22.36177691045232</v>
+        <v>4.293208813810828</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>32.25961144294352</v>
+        <v>24.16927328821632</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>34.86971034632244</v>
+        <v>31.9284346829027</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>20.32340283387721</v>
+        <v>9.828552457850272</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>31.08561651896142</v>
+        <v>21.8466832695215</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>33.83125187828938</v>
+        <v>31.0286850112548</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>17.77924168047243</v>
+        <v>-2.890359790943698</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>28.94147252789522</v>
+        <v>16.24697609683862</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>31.87979312287606</v>
+        <v>23.49218355066441</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>22.11563679063332</v>
+        <v>0.3024039163682701</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>32.44787067824356</v>
+        <v>34.22509744768298</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>35.16283804769032</v>
+        <v>45.61340345267241</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>35.82234829536179</v>
+        <v>40.20296239371562</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>39.86662052182214</v>
+        <v>50.71864996528235</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>41.0355002051345</v>
+        <v>56.41753141638902</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>29.22412939560433</v>
+        <v>8.359953654597554</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>39.09294500003536</v>
+        <v>37.26847163361908</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>41.70106637870633</v>
+        <v>45.7473927790783</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>15.98978716055291</v>
+        <v>-3.551972649791132</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>26.80792660393097</v>
+        <v>-2.463034497167278</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>29.56804232586232</v>
+        <v>4.227286264172939</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>13.25963042117142</v>
+        <v>-11.69869246205888</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>24.47341568334732</v>
+        <v>0.100656805614797</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>27.42753254628148</v>
+        <v>5.071565913802722</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>17.64136151604291</v>
+        <v>-9.57282526874075</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>28.01935822012838</v>
+        <v>13.86715957626706</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>30.7511231764183</v>
+        <v>18.82469224106399</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>31.17061277620531</v>
+        <v>4.182151471842396</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>35.23324080187064</v>
+        <v>10.16923594056662</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>36.40689275437734</v>
+        <v>15.40665460109236</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>24.5343606298235</v>
+        <v>-8.899241823611071</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>34.43615571344072</v>
+        <v>-2.392395444799995</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>37.06675206473993</v>
+        <v>6.258472124038185</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>19.07372281980493</v>
+        <v>-5.037900448795931</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>30.03797381219771</v>
+        <v>-0.9236259215094478</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>32.85824601707252</v>
+        <v>8.802845654322233</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>16.20390391369725</v>
+        <v>-14.73711913736391</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>27.5754702920083</v>
+        <v>-4.558294521019427</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>30.59291144797195</v>
+        <v>4.151120777335343</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>20.65833851418456</v>
+        <v>-16.78726318535859</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>31.18219876938834</v>
+        <v>8.100088895852771</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>33.9722715622387</v>
+        <v>18.83349038381881</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>34.53395497395778</v>
+        <v>2.525712512131442</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>38.68050368867139</v>
+        <v>17.77799045095899</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>39.87868475757762</v>
+        <v>24.2942179060664</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>27.8191647367364</v>
+        <v>-14.90122603838</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>37.87891087490306</v>
+        <v>2.315172289389928</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>40.55637493903914</v>
+        <v>10.05669700739589</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>25.3786605241834</v>
+        <v>-4.20864967207509</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>36.31732938734266</v>
+        <v>4.672472021995908</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>39.13734404464198</v>
+        <v>14.99791246521134</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>22.81271865876824</v>
+        <v>-14.95284916324956</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>34.15841565205237</v>
+        <v>0.9031045045419219</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>37.17648610946031</v>
+        <v>8.995961169075123</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>27.23228056759964</v>
+        <v>-15.01373904902479</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>37.73325972241758</v>
+        <v>16.44930355918672</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>40.52221636258271</v>
+        <v>29.57179342686391</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>41.22100089043438</v>
+        <v>19.98092664932296</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>45.34212938923481</v>
+        <v>32.30647967432692</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>46.54395820241296</v>
+        <v>41.43278435054348</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>34.50020194174617</v>
+        <v>-10.91601609168526</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>44.53147600826426</v>
+        <v>15.03742923139794</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>47.20693856727242</v>
+        <v>23.61794504816653</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>16.0384008825104</v>
+        <v>11.09839758277793</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>26.81190726285286</v>
+        <v>26.50635161024591</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>29.517471591625</v>
+        <v>33.82408178039649</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>13.43125293408151</v>
+        <v>5.972196576449711</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>24.5993281827168</v>
+        <v>32.59229714291505</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>27.49556935396945</v>
+        <v>37.8247630978232</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>17.76871141009368</v>
+        <v>12.83200642260818</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>28.10549561499515</v>
+        <v>53.36115896719156</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>30.78335628063926</v>
+        <v>58.11235050291032</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>31.16011166018538</v>
+        <v>44.30109823555151</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>35.19108524266794</v>
+        <v>50.8360799811712</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>36.34050917777562</v>
+        <v>52.00391518653553</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>24.55065982855167</v>
+        <v>17.94506449039338</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>34.4083947236753</v>
+        <v>40.46014383241951</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>36.99223838499089</v>
+        <v>50.05149028904609</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>18.96764239281569</v>
+        <v>4.170436322180741</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>29.88745641383796</v>
+        <v>22.78740921686683</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>32.65118633190887</v>
+        <v>32.08623602771559</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>16.22072489435678</v>
+        <v>-5.16761882484095</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>27.54674757944565</v>
+        <v>20.51992007865349</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>30.50414178511841</v>
+        <v>28.435476198192</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>20.63027591661118</v>
+        <v>-1.780306695120707</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>31.11305658180196</v>
+        <v>40.41690789013604</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>33.84721716291953</v>
+        <v>49.84859281164939</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>34.36998095262521</v>
+        <v>35.33763686803406</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>38.48365972840905</v>
+        <v>49.82117720538384</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>39.65662854967222</v>
+        <v>51.97498387569829</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>27.68376298116027</v>
+        <v>6.633045164501318</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>37.69900759520157</v>
+        <v>39.50681344256959</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>40.32819962287081</v>
+        <v>46.92990619829232</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>25.31258209785205</v>
+        <v>2.409181360800495</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>36.20445347471743</v>
+        <v>26.07496760397471</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>38.96838499297919</v>
+        <v>36.25220676401654</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>22.86353962098703</v>
+        <v>-7.823152466873943</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>34.16120945801967</v>
+        <v>23.96170142296322</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>37.11971713146382</v>
+        <v>31.41296681185415</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>27.24093357301972</v>
+        <v>-2.699287846827723</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>37.69856760126276</v>
+        <v>46.2804421704509</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>40.43204273022395</v>
+        <v>58.40657739293676</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>41.09060154052145</v>
+        <v>49.83974247640331</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>45.17854945157085</v>
+        <v>61.22695815972285</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>46.35576664324259</v>
+        <v>66.12809036391153</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>34.3992552944558</v>
+        <v>7.388816106676025</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>44.3839575483051</v>
+        <v>49.29728947433976</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>47.0114627391719</v>
+        <v>57.76691277388776</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>9.936602219372327</v>
+        <v>-1.863344720329273</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>20.61657144933318</v>
+        <v>-0.06533153286732585</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>23.31894086292124</v>
+        <v>5.573588924149085</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>7.234938562907125</v>
+        <v>-10.72500862233209</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>18.30630291281612</v>
+        <v>-1.048968458541047</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>21.19836530732377</v>
+        <v>4.148755866341254</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>11.5290863837359</v>
+        <v>-7.886215236378199</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>21.77642582606381</v>
+        <v>14.25557356672579</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>24.4506265363567</v>
+        <v>17.93160218286983</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>24.82581204348839</v>
+        <v>8.401485279660029</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>28.82867347294127</v>
+        <v>12.06608618460263</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>29.97600400095745</v>
+        <v>16.98640036313044</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>18.27710202585164</v>
+        <v>-10.14051336841222</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>28.06008363242749</v>
+        <v>1.702400197692761</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>30.63744634748945</v>
+        <v>7.802855770420912</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>12.83875826655159</v>
+        <v>2.345804704753427</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>23.66493479637663</v>
+        <v>7.433305451614423</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>26.426799870891</v>
+        <v>16.43509549149784</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>10.00002304508412</v>
+        <v>-8.822251242537241</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>21.22919708443714</v>
+        <v>0.0888036597145927</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>24.18384626905222</v>
+        <v>9.492257444611603</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>14.36500467264378</v>
+        <v>-9.517924338553421</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>24.75820269999075</v>
+        <v>14.51471109374987</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>27.49004572072577</v>
+        <v>24.15453832066434</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>28.00886727563257</v>
+        <v>10.49670697730742</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>32.09423117105887</v>
+        <v>22.21087331466843</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>33.26548083342595</v>
+        <v>29.08310122002249</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>21.38352747615864</v>
+        <v>-9.946770709537866</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>31.32369056216189</v>
+        <v>11.65341798434705</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>33.9476100042436</v>
+        <v>17.70193632154261</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>19.32159876076554</v>
+        <v>5.675003705866523</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>30.12148664582368</v>
+        <v>15.83479610729754</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>32.88290962655815</v>
+        <v>25.40923970093272</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>16.78043755909237</v>
+        <v>-7.023843554690465</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>27.98296433861569</v>
+        <v>7.909209611763835</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>30.93808850305409</v>
+        <v>16.61134338258976</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>21.11541078274684</v>
+        <v>-5.645722885065247</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>31.48505817726047</v>
+        <v>25.15830770230261</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>34.21563281791837</v>
+        <v>37.12279343254196</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>34.86917617473753</v>
+        <v>30.37462907324866</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>38.92896946634278</v>
+        <v>39.28092980481896</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>40.10426140073598</v>
+        <v>48.12428995781651</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>28.23835417010406</v>
+        <v>-3.393707161299595</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>38.14902666104771</v>
+        <v>26.76041606768931</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>40.77082403960503</v>
+        <v>33.6950630278484</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>12.38302739492991</v>
+        <v>-6.636612062658251</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>23.13671692908022</v>
+        <v>1.33874577903547</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>25.848185522488</v>
+        <v>5.204613676697114</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>9.690179961528205</v>
+        <v>-14.73778513415086</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>20.83836373720889</v>
+        <v>0.7823517752208105</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>23.74089463205185</v>
+        <v>4.779259303197456</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>14.00430125219074</v>
+        <v>-12.07334171284455</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>24.32253281496397</v>
+        <v>18.65280951145491</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>27.0060916932827</v>
+        <v>20.40263065855522</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>27.365308965084</v>
+        <v>8.722330126868606</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>31.39296455349402</v>
+        <v>12.6805394730574</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>32.54507243635614</v>
+        <v>15.09529351190438</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>20.76481467588773</v>
+        <v>-13.82531837650821</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>30.61045887207603</v>
+        <v>1.170736008833252</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>33.19760156294343</v>
+        <v>6.297384526087946</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>15.40393586693443</v>
+        <v>13.94346349726371</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>26.30418300951802</v>
+        <v>26.03584051075178</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>29.07448394639431</v>
+        <v>32.47593590965051</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>12.57470865847296</v>
+        <v>2.95688669888677</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>23.88104524235532</v>
+        <v>18.76861911953026</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>26.84544610450319</v>
+        <v>26.04005679131334</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>16.96063688240255</v>
+        <v>2.790799819232127</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>27.42506564143855</v>
+        <v>36.25880315820346</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>30.16558709842155</v>
+        <v>43.11585906679503</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>30.66997052232746</v>
+        <v>30.03958460673162</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>34.78043242927293</v>
+        <v>42.12465519005531</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>35.95604846579342</v>
+        <v>45.82388260946795</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>23.99231248747311</v>
+        <v>5.173813405320381</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>33.99547559889607</v>
+        <v>30.83202612524543</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>36.62855117342068</v>
+        <v>34.97873452367009</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>21.89593259294525</v>
+        <v>13.28976686084039</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>32.76917559070264</v>
+        <v>30.61152548192437</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>35.5393286263485</v>
+        <v>38.23231692806642</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>19.36386563959683</v>
+        <v>0.01787714439274879</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>30.64278585769024</v>
+        <v>21.99539346818518</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>33.60795634177882</v>
+        <v>29.22772442218793</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>23.72025455791987</v>
+        <v>2.111291811766826</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>34.16043349237093</v>
+        <v>42.58915601574353</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>36.89993038739062</v>
+        <v>52.47815638189685</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>37.53884217823902</v>
+        <v>45.34234572947941</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>41.62374053674605</v>
+        <v>54.51795425038095</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>42.80359152169982</v>
+        <v>60.91333671437028</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>30.85552117233973</v>
+        <v>6.463129432503912</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>40.82876174687382</v>
+        <v>41.34025622870991</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>43.46001424821112</v>
+        <v>46.48363774554389</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>10.38702699175763</v>
+        <v>6.308623133203589</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>21.07624077818549</v>
+        <v>7.060247519809117</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>23.77878328718099</v>
+        <v>11.7046536983896</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>7.670674267148662</v>
+        <v>-2.427706162178701</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>18.75130280984474</v>
+        <v>6.718352916103136</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>21.64412503137129</v>
+        <v>10.6986103500409</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>11.97106569127518</v>
+        <v>0.5499240657958993</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>22.22690362120652</v>
+        <v>22.30991526383244</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>24.90155146230959</v>
+        <v>24.9764286993445</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>25.27013592002081</v>
+        <v>14.64101702271189</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>29.27389184816596</v>
+        <v>16.06783614217205</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>30.42320472942338</v>
+        <v>19.78043795950322</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>18.72188462820342</v>
+        <v>1.78372302038796</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>28.51003635824198</v>
+        <v>8.734511596457544</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>31.08952766505731</v>
+        <v>14.89905799532955</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>13.20691797135091</v>
+        <v>-0.1234491486296108</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>24.04208368724884</v>
+        <v>3.300286356865236</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>26.8041049849557</v>
+        <v>10.89165833982839</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>10.35178023603641</v>
+        <v>-12.14846205524196</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>21.5899519380433</v>
+        <v>-4.378771885042674</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>24.54533953358583</v>
+        <v>3.233881817936727</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>14.72297224679062</v>
+        <v>-12.7074623203866</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>25.1244251294935</v>
+        <v>10.19499206528503</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>27.85667887343476</v>
+        <v>18.4546076204677</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>28.36862677037163</v>
+        <v>4.651069645638849</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>32.4548241743282</v>
+        <v>13.7112479858725</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>33.62799752761871</v>
+        <v>18.94945017043245</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>21.74388720304371</v>
+        <v>-10.01013639870882</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>31.68900373900029</v>
+        <v>5.922970700372225</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>34.31499762564639</v>
+        <v>11.21880780235956</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>19.79143747942304</v>
+        <v>8.899206099319038</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>30.60107916611742</v>
+        <v>18.0517779307534</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>33.36164478287972</v>
+        <v>26.24195401297502</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>17.23502962357126</v>
+        <v>-5.167080028030476</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>28.44734119305409</v>
+        <v>9.307292946370048</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>31.40206470567133</v>
+        <v>16.37282055107253</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>21.57721978232687</v>
+        <v>-3.244176982265536</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>31.95585374960973</v>
+        <v>27.20750668363429</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>34.685775945279</v>
+        <v>37.82554409316152</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>35.33302768793064</v>
+        <v>30.77190175924324</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>39.39391158810332</v>
+        <v>36.98022959913497</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>40.57075118466312</v>
+        <v>44.39767492613817</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>28.70157406912192</v>
+        <v>2.089252475044766</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>38.61791923917092</v>
+        <v>27.21296948611172</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>41.24087445434994</v>
+        <v>33.26136925971924</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>7.150378546209918</v>
+        <v>-0.8433274279127758</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>17.74717434539217</v>
+        <v>-5.005557675259006</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>20.43110208257549</v>
+        <v>-2.104983773897509</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>4.379574005259368</v>
+        <v>-9.222498884666628</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>15.364156520754</v>
+        <v>-5.666494828567686</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>18.23705479711869</v>
+        <v>-3.115209919068882</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>8.636841362756648</v>
+        <v>-7.78134448731705</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>18.80371267648227</v>
+        <v>8.038070755430461</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>21.45986868772799</v>
+        <v>9.000222301271727</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>21.81891808787728</v>
+        <v>-1.208384261809123</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>25.79163925727284</v>
+        <v>-1.471784160146903</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>26.9328566822769</v>
+        <v>2.075867315682338</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>15.33647866945297</v>
+        <v>-8.695186745004257</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>25.04092359364016</v>
+        <v>-7.694920956017476</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>27.6014519560395</v>
+        <v>-4.211659408479242</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>10.04498402798554</v>
+        <v>-2.597387941845987</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>20.78755017034421</v>
+        <v>-3.909753516015193</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>23.53055959642153</v>
+        <v>1.792834188459103</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>7.137883879070127</v>
+        <v>-13.96257957435028</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>18.27977130272654</v>
+        <v>-11.46756389226589</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>21.21481721726519</v>
+        <v>-5.457085327302927</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>11.46567047457169</v>
+        <v>-15.87980560850917</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>21.7779481179542</v>
+        <v>1.289204365887151</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>24.4913236594945</v>
+        <v>7.597993488204516</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>24.9929249209101</v>
+        <v>-5.974561401006348</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>29.04777278231848</v>
+        <v>1.3410165976942</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>30.21263427864148</v>
+        <v>6.373645867787054</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>18.43380898827967</v>
+        <v>-15.4489305142643</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>28.29481504319794</v>
+        <v>-5.633230667542442</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>30.90156999631303</v>
+        <v>-2.969536592241148</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>16.70084211404411</v>
+        <v>7.76756336039157</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>27.41849333050375</v>
+        <v>12.03448757528341</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>30.1605571395341</v>
+        <v>18.52829952436398</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>14.09037882933888</v>
+        <v>-5.992561248308498</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>25.20701906854928</v>
+        <v>3.02264096302563</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>28.14195249811041</v>
+        <v>8.732169895714357</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>18.39072444199689</v>
+        <v>-5.130763557413381</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>28.68076193897279</v>
+        <v>19.4415402129711</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>31.39232175038402</v>
+        <v>28.30466734133123</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>32.02757610989298</v>
+        <v>21.2304441804765</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>36.05747723125126</v>
+        <v>25.96687666700621</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>37.2262088407997</v>
+        <v>33.14453762808194</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>25.46112787608381</v>
+        <v>-2.111624818503877</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>35.29393973197298</v>
+        <v>16.81003640690827</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>37.89815278016833</v>
+        <v>20.32919476588732</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>16.35145554485899</v>
+        <v>17.35253537576722</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>27.17928319129843</v>
+        <v>20.6386645062884</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>29.94241122136732</v>
+        <v>26.53527417007414</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>13.60987634057785</v>
+        <v>4.916814149420425</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>24.83343051804496</v>
+        <v>19.1782770425682</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>27.79056814245932</v>
+        <v>23.09121040053765</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>18.01219892257657</v>
+        <v>9.472354960524065</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>28.39921754365115</v>
+        <v>34.91129705784301</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>31.13394465725566</v>
+        <v>38.80849055928707</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>31.56924854449255</v>
+        <v>29.68311692321934</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>35.63387033342075</v>
+        <v>33.58129945434221</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>36.80793965149893</v>
+        <v>36.94333907211323</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>24.92921485117679</v>
+        <v>17.72712792861081</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>34.84107700356422</v>
+        <v>25.85531422940728</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>37.47503232902064</v>
+        <v>34.69484321281102</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>19.33744735196534</v>
+        <v>6.797480573438357</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>30.31162632260659</v>
+        <v>12.73173162924562</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>33.13542583184888</v>
+        <v>21.45765972056436</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>16.4541456845102</v>
+        <v>-7.85089121934012</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>27.83576135793059</v>
+        <v>4.300159939760995</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>30.85676924516861</v>
+        <v>11.81043326291911</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>20.92878297384669</v>
+        <v>-7.396146269297098</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>31.46191304669789</v>
+        <v>19.09610297090706</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>34.25545915752831</v>
+        <v>28.5620756067026</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>34.83250082361061</v>
+        <v>17.32525429614325</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>38.9811429287298</v>
+        <v>30.02597386839168</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>40.17996048386163</v>
+        <v>34.06229998726432</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>28.11408933276774</v>
+        <v>1.226313232933258</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>38.18425171758827</v>
+        <v>19.61560562739329</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>40.8654907021927</v>
+        <v>27.24779800909119</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>25.6678838333195</v>
+        <v>11.67290544033185</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>36.61709010293962</v>
+        <v>22.41995923073151</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>39.43987643617591</v>
+        <v>31.47823504533356</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>23.09052219535893</v>
+        <v>-4.00535779791678</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>34.44691756196271</v>
+        <v>13.86146291227849</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>37.46775137002416</v>
+        <v>20.50631986818335</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>27.52972597550206</v>
+        <v>-1.723653087214039</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>38.04057053515183</v>
+        <v>31.36725322390743</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>40.83226411499517</v>
+        <v>42.92248897281366</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>41.54740692338883</v>
+        <v>38.70228577972367</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>45.67051530968984</v>
+        <v>48.24580703198686</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>46.87273712020906</v>
+        <v>54.5921758483809</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>34.822726486291</v>
+        <v>9.226766275394205</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>44.8648080738657</v>
+        <v>36.0073841026258</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>47.54335267066992</v>
+        <v>44.41700012717474</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>13.22212056890985</v>
+        <v>18.32419216765164</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>23.92282615108675</v>
+        <v>28.47177337127949</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>26.62583365101586</v>
+        <v>34.59637615626054</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>10.58171435554198</v>
+        <v>9.868362407187426</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>21.67517833511543</v>
+        <v>28.34845394735522</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>24.5685058136982</v>
+        <v>34.22178772000348</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>14.87882599773504</v>
+        <v>15.18132432309438</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>25.14663687443429</v>
+        <v>47.19793491406546</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>27.82184343525248</v>
+        <v>51.40791144178542</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>28.19344000472857</v>
+        <v>41.48103466332928</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>32.20191112795404</v>
+        <v>45.08796914410735</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>33.35022638979649</v>
+        <v>50.56026596323839</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>21.62072003112289</v>
+        <v>13.80324931809145</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>31.42243729790468</v>
+        <v>34.72207479224762</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>34.00177426380883</v>
+        <v>43.46909503409996</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>16.0390688071889</v>
+        <v>9.397644886727768</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>26.88472800723812</v>
+        <v>22.04216452340575</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>29.64667210976682</v>
+        <v>30.95502422785069</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>13.26103733462577</v>
+        <v>-1.630583827635228</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>24.51098804096385</v>
+        <v>15.21590497169041</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>27.4663092323165</v>
+        <v>24.65967346650547</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>17.62859918660926</v>
+        <v>-0.416489825715864</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>28.04103833244487</v>
+        <v>32.60046196434741</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>30.7733278146257</v>
+        <v>42.16845321576154</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>31.28851740758854</v>
+        <v>29.36316731625514</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>35.37909668513645</v>
+        <v>40.77644382359794</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>36.55096879577363</v>
+        <v>47.70206420710603</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>24.63997542574749</v>
+        <v>0.3912677788452541</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>34.59762186128114</v>
+        <v>29.95729894380785</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>37.22297674554184</v>
+        <v>37.75851197206854</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>22.42491670629781</v>
+        <v>8.48097470834032</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>33.24381362650555</v>
+        <v>26.36800594352329</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>36.00509325792579</v>
+        <v>36.28075432152597</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>19.94343011698626</v>
+        <v>-4.416741995118564</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>31.16623439412855</v>
+        <v>18.6219906596401</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>34.1217581433545</v>
+        <v>27.83081422937912</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>24.28082512120572</v>
+        <v>-1.171036614073664</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>34.66924890015851</v>
+        <v>38.8401228129242</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>37.40000608629655</v>
+        <v>51.22759490145476</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>38.04931723024103</v>
+        <v>44.74940502909113</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>42.11426951515431</v>
+        <v>53.25852642980906</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>43.29022033390612</v>
+        <v>62.77772867854979</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>31.3958329681127</v>
+        <v>1.788309801388245</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>41.32360855110315</v>
+        <v>40.25047330150591</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>43.94668633201616</v>
+        <v>49.17924245994295</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>18.54921011395837</v>
+        <v>13.0948056443051</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>29.3353300258602</v>
+        <v>24.65603374456848</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>32.07278268024147</v>
+        <v>31.21713706840311</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>15.87712460768398</v>
+        <v>4.630462203737387</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>27.05842277612957</v>
+        <v>27.73664853650255</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>29.98825529275202</v>
+        <v>32.30744861170852</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>20.2540096653314</v>
+        <v>9.316382853035357</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>30.60206287137844</v>
+        <v>44.95630339862064</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>33.31145071235904</v>
+        <v>49.4217402891562</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>33.76340045708505</v>
+        <v>36.90752566667761</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>37.80929403883452</v>
+        <v>42.77170354718505</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>38.97293143005219</v>
+        <v>46.37677658354335</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>27.15329684693318</v>
+        <v>14.48508166996684</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>37.02523270609931</v>
+        <v>32.32850760582793</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>39.63542516633984</v>
+        <v>43.86450279776952</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>21.50767240373768</v>
+        <v>9.135433660819082</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>32.43778130946587</v>
+        <v>23.6260647143715</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>35.23445728316673</v>
+        <v>32.68183995696794</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>18.69373074653299</v>
+        <v>-1.430469949562386</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>30.03059279084335</v>
+        <v>19.81963359930791</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>33.02275404314398</v>
+        <v>27.66443690750396</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>23.14303542362248</v>
+        <v>-0.866697667595723</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>33.63488844952747</v>
+        <v>36.10388511654219</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>36.40166594201949</v>
+        <v>45.82391223427414</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>36.99437433754534</v>
+        <v>32.49842943917682</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>41.12333649264282</v>
+        <v>47.42077116482174</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>42.31114155261098</v>
+        <v>51.78386785787095</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>30.30700327841637</v>
+        <v>5.869674160639995</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>40.33487903508293</v>
+        <v>34.69120036922451</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>42.9910868485555</v>
+        <v>44.50549060218029</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>27.63802899078417</v>
+        <v>6.853351826136596</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>38.54150161389227</v>
+        <v>26.04984988993085</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>41.33770019829563</v>
+        <v>35.47395301748549</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>25.12783218900877</v>
+        <v>-4.709659053406334</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>36.43774212005971</v>
+        <v>22.15770671832772</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>39.43028565061891</v>
+        <v>29.11149580556978</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>29.54037980741495</v>
+        <v>-2.528871024745193</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>40.00831764299772</v>
+        <v>40.9497699569968</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>42.77377058723876</v>
+        <v>52.82525831358777</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>43.50256748301493</v>
+        <v>46.32611994095831</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>47.60586610616421</v>
+        <v>57.92206019260798</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>48.7971778552518</v>
+        <v>64.86218871915921</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>36.8101641208455</v>
+        <v>6.195078300222384</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>46.80868753962218</v>
+        <v>43.62012597553841</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>49.4627047570363</v>
+        <v>54.11555013687568</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>6.77544490746314</v>
+        <v>20.93108106018119</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>17.94760688969211</v>
+        <v>26.85090887047165</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>20.77267449093643</v>
+        <v>32.98858346997498</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>3.769431047200996</v>
+        <v>18.64311545785359</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>15.35022156467416</v>
+        <v>36.49471504169981</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>18.37362916440199</v>
+        <v>40.64190795509996</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>8.303539976324384</v>
+        <v>17.73673322729159</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>19.02179495837559</v>
+        <v>46.60352330781507</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>21.81728434624704</v>
+        <v>50.88190230533002</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>22.33859000474548</v>
+        <v>38.45042790460776</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>26.53298244855119</v>
+        <v>43.04752246836964</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>27.73360843348001</v>
+        <v>48.07022503679358</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>15.55676587765008</v>
+        <v>23.25329313867289</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>25.78326858324008</v>
+        <v>32.6753259557666</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>28.47643386978621</v>
+        <v>44.91253702286162</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>9.843333424031281</v>
+        <v>18.21630674264578</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>21.16594089829414</v>
+        <v>26.91454908022224</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>24.05218897582276</v>
+        <v>35.77914904209553</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>6.68837554484994</v>
+        <v>14.98847750107365</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>18.43167166074574</v>
+        <v>30.64025354310881</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>21.5194524588562</v>
+        <v>38.32589948247617</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>11.29842210363371</v>
+        <v>9.194520308084272</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>22.16689903461143</v>
+        <v>39.25383805182899</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>25.02165255908425</v>
+        <v>48.9820890454744</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>25.68922962295924</v>
+        <v>35.26995161379785</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>29.96996334838349</v>
+        <v>48.85793780528477</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>31.1954327785364</v>
+        <v>54.60463848062339</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>18.82671089712754</v>
+        <v>15.2498814775986</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>29.21586033494984</v>
+        <v>35.60957767139679</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>31.95649643691065</v>
+        <v>46.40932061548842</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>16.5277368170899</v>
+        <v>16.17507760015665</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>27.82231939159275</v>
+        <v>29.43251070339361</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>30.70863985382076</v>
+        <v>38.41959502917806</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>13.69310709011461</v>
+        <v>12.10120699207943</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>25.40802446323774</v>
+        <v>33.14364289208996</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>28.49685381101515</v>
+        <v>39.7821086159523</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>18.2667028228575</v>
+        <v>8.074235785881207</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>29.11000729079891</v>
+        <v>44.47667745274772</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>31.96397339807999</v>
+        <v>56.07296521620928</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>32.77038937700543</v>
+        <v>49.71042909244131</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>37.02458583938552</v>
+        <v>60.10468386433417</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>38.25400416314937</v>
+        <v>68.19081653510648</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>25.90118234024563</v>
+        <v>16.45318896649758</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>36.25947505446377</v>
+        <v>45.09137979840111</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>38.99841975809774</v>
+        <v>56.47843846767805</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>15.55148699815546</v>
+        <v>12.37781092136468</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>26.36707749455234</v>
+        <v>23.15586465464106</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>29.09731773241577</v>
+        <v>29.17765611099146</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>12.91136263060493</v>
+        <v>3.482612138360317</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>24.12423445712984</v>
+        <v>22.5527120774209</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>27.04651468064502</v>
+        <v>27.49047008285624</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>17.25982136806553</v>
+        <v>7.812254954363205</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>27.6378869105849</v>
+        <v>41.45257425061917</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>30.339988364638</v>
+        <v>45.27763098938724</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>30.7474499789263</v>
+        <v>38.06616692440239</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>34.79915601599056</v>
+        <v>42.81587915091081</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>35.95909089979598</v>
+        <v>45.83011547311248</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>24.10498951089103</v>
+        <v>6.442699149121957</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>34.01118258888659</v>
+        <v>29.46163394083619</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>36.61571085621488</v>
+        <v>37.55217459462256</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>18.43013700792604</v>
+        <v>5.373408113680888</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>29.39050449380885</v>
+        <v>18.93180600525967</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>32.18000768507135</v>
+        <v>27.48485386123679</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>15.65063106425906</v>
+        <v>-6.122942084686137</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>27.01984027022989</v>
+        <v>11.56002412638939</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>30.00446975636459</v>
+        <v>19.87558348911362</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>20.0704256180487</v>
+        <v>-5.912194153293392</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>30.59298644288274</v>
+        <v>29.01129036869271</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>33.35250250749053</v>
+        <v>37.98509801677256</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>33.90343978232871</v>
+        <v>28.15619843873009</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>38.03790724820216</v>
+        <v>41.13193973167424</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>39.22168233985246</v>
+        <v>45.43166889639637</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>27.18471938368306</v>
+        <v>-5.286697600436405</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>37.24710916338412</v>
+        <v>26.98693194773853</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>39.89780376253854</v>
+        <v>34.00654629775205</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>24.7045736378897</v>
+        <v>4.731992566739372</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>35.63755029338306</v>
+        <v>23.31921134063013</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>38.42650899998887</v>
+        <v>32.73433807172817</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>22.22548672509381</v>
+        <v>-8.169617690183109</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>33.56692760054751</v>
+        <v>15.473019858665</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>36.55192049489149</v>
+        <v>23.39153132830746</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>26.61231411576516</v>
+        <v>-6.05793547970989</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>37.11026199214017</v>
+        <v>35.65367816880374</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>39.8683894781089</v>
+        <v>47.31746043316779</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>40.55449962891748</v>
+        <v>43.39738543947073</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>44.66303262870414</v>
+        <v>53.42393223103273</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>45.85070870701001</v>
+        <v>60.30357550072313</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>33.83140217642008</v>
+        <v>-4.031812020225765</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>43.86342791532514</v>
+        <v>37.24344840627177</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>46.51193524884237</v>
+        <v>45.33443408523633</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>14.31166530505486</v>
+        <v>1.736866402260837</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>24.89683454344578</v>
+        <v>4.263719074456311</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>27.58437967678046</v>
+        <v>9.292669724986958</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>11.620299877088</v>
+        <v>-8.97089847844736</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>22.59244931417152</v>
+        <v>4.188887900891025</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>25.46817216961253</v>
+        <v>7.587587121704651</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>15.91277577271159</v>
+        <v>-3.795638175498532</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>26.06747223625266</v>
+        <v>20.13851487176539</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>28.72683672323436</v>
+        <v>23.1838923111975</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>29.15562545850058</v>
+        <v>13.79010005330694</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>33.12595690140946</v>
+        <v>16.65861452786113</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>34.26993638907281</v>
+        <v>18.77706700951286</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>22.66972941106561</v>
+        <v>-3.868391554719203</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>32.36194071625273</v>
+        <v>5.193345047795027</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>34.92441836981764</v>
+        <v>12.32917143996023</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>17.24455158228925</v>
+        <v>7.256044620106913</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>27.97328811944432</v>
+        <v>13.34775119590555</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>30.72055935636846</v>
+        <v>21.37492798694044</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>14.4149918627329</v>
+        <v>-5.337854459316667</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>25.54218156013022</v>
+        <v>6.885738231033635</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>28.48078685453017</v>
+        <v>14.03770499396607</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>18.7784952773264</v>
+        <v>-4.122238460694028</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>29.07649706910053</v>
+        <v>21.94141228978317</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>31.79378275654765</v>
+        <v>30.65671842699573</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>32.3612691951389</v>
+        <v>19.11406275170518</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>36.41366293044661</v>
+        <v>30.66363567844167</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>37.58200007547541</v>
+        <v>33.87935431229131</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>25.79866519863474</v>
+        <v>-2.652136639288493</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>35.64598948793174</v>
+        <v>17.85986475503461</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>38.25513693397254</v>
+        <v>24.28310943666481</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>23.47342617465351</v>
+        <v>7.755859994965824</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>34.17778053494047</v>
+        <v>18.87215535951476</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>36.92378881978802</v>
+        <v>27.06214509196139</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>20.94496492734168</v>
+        <v>-5.863457740132496</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>32.04750633034656</v>
+        <v>12.28976097459307</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>34.98568752725946</v>
+        <v>18.42065984934695</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>25.27346431560851</v>
+        <v>-2.957898723787189</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>35.54969442327587</v>
+        <v>29.87734284416036</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>38.26492715452265</v>
+        <v>40.44857863911444</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>38.96786603493451</v>
+        <v>36.25407371765039</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>42.99540662592662</v>
+        <v>44.72933225304033</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>44.16686300956162</v>
+        <v>49.85824150985159</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>32.39932030441885</v>
+        <v>1.180087211856183</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>42.21915607835609</v>
+        <v>30.59242414339949</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>44.82542435547413</v>
+        <v>37.62167568494383</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>6.301839774490418</v>
+        <v>5.440332749636674</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>17.46112807730163</v>
+        <v>9.708596248197701</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>20.28541632604762</v>
+        <v>16.48689745000389</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>3.292327267408915</v>
+        <v>-0.2557533887200734</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>14.85972652740143</v>
+        <v>15.72420532508915</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>17.88217493811588</v>
+        <v>20.48592806986938</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>7.823276844676997</v>
+        <v>0.4308670821314493</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>18.52913420699944</v>
+        <v>27.23481398564721</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>21.32379528190525</v>
+        <v>32.18448170250534</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>21.8494616053086</v>
+        <v>20.53864598709442</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>26.03967553799116</v>
+        <v>24.94394628450764</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>27.23974852514084</v>
+        <v>30.56876173264627</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>15.07676926425104</v>
+        <v>5.614583701431947</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>25.29221321356304</v>
+        <v>14.07515931236853</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>27.98435516757922</v>
+        <v>26.6531464755054</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>9.347307182842599</v>
+        <v>2.417879819371798</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>20.65699510934017</v>
+        <v>9.451965107601389</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>23.5426860584654</v>
+        <v>19.24279700437786</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>6.188805586248623</v>
+        <v>-4.252869055468175</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>17.91866830066457</v>
+        <v>9.533563685055306</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>21.00572670300573</v>
+        <v>18.14941847802994</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>10.7954675922691</v>
+        <v>-8.291208675349786</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>21.65150489072539</v>
+        <v>19.6906854015424</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>24.50565290640419</v>
+        <v>30.39232006605557</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>25.17717352288783</v>
+        <v>16.94097511992613</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>29.45368360946355</v>
+        <v>30.35866036165829</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>30.6787189955141</v>
+        <v>36.8151041593929</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>18.32381108710846</v>
+        <v>-2.908474327683727</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>28.70185864780761</v>
+        <v>16.43934720708314</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>31.44167508307782</v>
+        <v>27.84786839096564</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>16.04205909055005</v>
+        <v>0.4390598868162456</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>27.32391895373025</v>
+        <v>12.02911968243476</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>30.20956715060577</v>
+        <v>21.87457603457054</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>13.20420187875478</v>
+        <v>-7.133325645950059</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>24.90589378402229</v>
+        <v>12.04574567890067</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>27.993876005807</v>
+        <v>19.54884932395604</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>17.77439364986874</v>
+        <v>-9.401846714710494</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>28.60544617287029</v>
+        <v>24.91460804014321</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>31.45869800971042</v>
+        <v>37.40398755365579</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>32.26925013462102</v>
+        <v>31.44763212546048</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>36.51923523339735</v>
+        <v>41.59996146491978</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>37.7481436063453</v>
+        <v>50.29682739271488</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>25.40915812944952</v>
+        <v>-1.615280747492839</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>35.75647135702288</v>
+        <v>25.92052038874832</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>38.49448802630336</v>
+        <v>37.9431139134868</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>19.19358994606276</v>
+        <v>21.21415920745796</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>29.90682572493375</v>
+        <v>29.44080324024447</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>32.62176751397067</v>
+        <v>36.17508845494144</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>16.59238427403925</v>
+        <v>11.45274962064023</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>27.6966296752815</v>
+        <v>32.75403676885137</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>30.60230374520474</v>
+        <v>37.92538907699683</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>20.93657363840653</v>
+        <v>18.50202951398678</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>31.21376985075748</v>
+        <v>50.20752033852509</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>33.90067696451749</v>
+        <v>54.68201661140117</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>34.30807923218691</v>
+        <v>41.94963403700016</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>38.32321793168141</v>
+        <v>46.84466481919419</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>39.47830960874039</v>
+        <v>49.94572439559818</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>27.72673473726069</v>
+        <v>24.49005721193937</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>37.53115155885666</v>
+        <v>36.39933507553182</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>40.12357839845247</v>
+        <v>49.13233816909699</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>22.07049183418156</v>
+        <v>16.15592346800822</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>32.92817765203056</v>
+        <v>27.18729073714452</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>35.70218746602903</v>
+        <v>36.14235718081512</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>19.32872324256043</v>
+        <v>3.241464480029698</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>30.58896448028973</v>
+        <v>22.68603129768551</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>33.55681152944324</v>
+        <v>30.79149941202244</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>23.74434963264139</v>
+        <v>5.70072933645293</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>34.16572874842795</v>
+        <v>38.73495869097801</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>36.90987901945074</v>
+        <v>48.12273069913645</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>37.45982606253981</v>
+        <v>33.92809519189317</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>41.55757510178572</v>
+        <v>47.09294657603869</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>42.73671271694465</v>
+        <v>51.06284134584411</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>30.80195748193099</v>
+        <v>13.0712171796248</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>40.7625460343226</v>
+        <v>35.48901475338457</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>43.40089926206841</v>
+        <v>46.24348396843741</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>28.25552212052331</v>
+        <v>13.00184355387783</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>39.08765406703147</v>
+        <v>29.24872554636548</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>41.86060286193446</v>
+        <v>38.40892843966257</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>25.81249367860219</v>
+        <v>-0.1633164738016646</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>37.04690909001339</v>
+        <v>25.34174360254676</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>40.01453784749997</v>
+        <v>32.50396438517388</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>30.19355299724591</v>
+        <v>3.977856572073001</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>40.59209728518648</v>
+        <v>43.96658862115948</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>43.33433624854473</v>
+        <v>55.29340950216253</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>44.02024430710796</v>
+        <v>48.06781977728307</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>48.09273247103675</v>
+        <v>58.29594233565781</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>49.27545970588984</v>
+        <v>64.48247976406589</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>37.35678263925254</v>
+        <v>13.74356695821547</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>47.28891821635058</v>
+        <v>45.04104904024508</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>49.92452596653716</v>
+        <v>56.42720960797352</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>16.42908066731522</v>
+        <v>10.60320962817793</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>27.24912452882663</v>
+        <v>21.14687251166658</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>29.98046746054345</v>
+        <v>27.64667613839612</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>13.80315645383303</v>
+        <v>2.074971311602248</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>25.02046239641497</v>
+        <v>21.49263624074218</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>27.94387671394583</v>
+        <v>26.5391639614669</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>18.15761164835325</v>
+        <v>6.540100852417403</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>28.53967650346049</v>
+        <v>40.04621167972645</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>31.24289269224539</v>
+        <v>44.56480591447738</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>31.65518033588609</v>
+        <v>35.927124492597</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>35.70878866662267</v>
+        <v>41.09730554012223</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>36.86943204584405</v>
+        <v>43.2817963230875</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>25.00838995592856</v>
+        <v>4.332980852912762</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>34.91789094169681</v>
+        <v>27.31294923835237</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>37.52349296393977</v>
+        <v>36.13653611116803</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>19.33007227429001</v>
+        <v>7.031060949247866</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>30.29483493577363</v>
+        <v>20.35012724823708</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>33.08559075271204</v>
+        <v>29.44650120513581</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>16.56445646158336</v>
+        <v>-3.912205902949857</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>27.93804873182004</v>
+        <v>14.0435394443602</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>30.92397320314434</v>
+        <v>22.53241596362745</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>20.99060407014319</v>
+        <v>-3.613380453107787</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>31.51711599204747</v>
+        <v>31.15889109486103</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>34.27789803399065</v>
+        <v>40.89827593429028</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>34.83323685963031</v>
+        <v>29.90231005058889</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>38.969679576486</v>
+        <v>43.22736196425431</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>40.15428582172947</v>
+        <v>46.80504191790678</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>28.11004291802337</v>
+        <v>-3.897200465734379</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>38.17577119074652</v>
+        <v>28.44551249868986</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>40.82767984759439</v>
+        <v>36.20947875346153</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>25.55853532722226</v>
+        <v>4.177242949051056</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>36.49596263408736</v>
+        <v>22.4095867164156</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>39.28607658345914</v>
+        <v>32.28858906338198</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>23.09325963137137</v>
+        <v>-8.029037558363449</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>34.43914858245707</v>
+        <v>15.76702448965316</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>37.42534238931674</v>
+        <v>23.77686479343649</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>27.48567936822871</v>
+        <v>-5.97656914120406</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>37.98763509302436</v>
+        <v>35.45103764597869</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>40.74693835332249</v>
+        <v>47.78871448721308</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>41.43791044318553</v>
+        <v>42.80410858588517</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>45.54844685424768</v>
+        <v>53.18079998648827</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>46.73685528901397</v>
+        <v>59.32812617345221</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>34.71044213554304</v>
+        <v>-4.839025684088959</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>44.74590564466689</v>
+        <v>36.41302183441386</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>47.39551647251295</v>
+        <v>45.21604094010267</v>
       </c>
     </row>
   </sheetData>
